--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.547112462006079</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0.5495495495495496</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9836065573770492</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5435435435435435</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.703125</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4534534534534534</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1098584542748105</v>
+        <v>0.08597085838475636</v>
       </c>
       <c r="J2" t="n">
-        <v>1414.304077874428</v>
+        <v>1077.493764907783</v>
       </c>
       <c r="K2" t="n">
-        <v>2701091.441640506</v>
+        <v>1492979.488377516</v>
       </c>
       <c r="L2" t="n">
-        <v>1643.499754073759</v>
+        <v>1221.875398057231</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4977918168548326</v>
+        <v>0.7224135011602231</v>
       </c>
     </row>
   </sheetData>
